--- a/06_Documentación/G3_14_Niveles_v3.xlsx
+++ b/06_Documentación/G3_14_Niveles_v3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\2567_G3_ACSW\01_Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\2567_G3_ACSW\06_Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67ED75B-281D-4DA3-BE67-F13F1DC40254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D556322E-429A-481B-AB68-850D3BB805E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{4997B183-6BA5-427C-8615-A6F9FCD80629}"/>
   </bookViews>
@@ -305,13 +305,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -14033,15 +14033,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>319150</xdr:colOff>
+      <xdr:colOff>289843</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>123702</xdr:rowOff>
+      <xdr:rowOff>111978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>270769</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>166255</xdr:rowOff>
+      <xdr:colOff>241462</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>97133</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14059,8 +14059,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8940636" y="12337473"/>
-          <a:ext cx="2302933" cy="1893125"/>
+          <a:off x="8929751" y="12104686"/>
+          <a:ext cx="2307957" cy="2710770"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -14135,6 +14135,25 @@
             </a:rPr>
             <a:t>Porcentaje de graduados contactados que participan en las encuestas anuales.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="es-EC">
             <a:effectLst/>
           </a:endParaRPr>
@@ -14202,15 +14221,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>324989</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>99755</xdr:rowOff>
+      <xdr:colOff>270561</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>132412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>276608</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>106681</xdr:rowOff>
+      <xdr:colOff>222180</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>139339</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14228,7 +14247,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8946475" y="14349155"/>
+          <a:off x="8892047" y="15122041"/>
           <a:ext cx="2302933" cy="1117269"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -14291,7 +14310,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Mitigar los riesgos de baja participación de los graduados en el sistema de seguimiento y minimizar la desactualización de los datos.</a:t>
+            <a:t>Controlar la baja participación de los graduados en el sistema de seguimiento y minimizar la desactualización de los datos.</a:t>
           </a:r>
           <a:endParaRPr lang="es-EC">
             <a:effectLst/>
@@ -15909,6 +15928,94 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>339969</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>78437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>239486</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>103688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29BBE75-B1E1-C4D4-2982-FDE1EFB7F133}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8979877" y="12979683"/>
+          <a:ext cx="2255855" cy="206959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>357554</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>109725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>216877</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Imagen 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4971DB0F-55B2-FBA6-53C2-B9118D04C689}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8997462" y="14101217"/>
+          <a:ext cx="2215661" cy="129618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16247,78 +16354,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -16417,11 +16524,11 @@
       <c r="V11" s="8"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
@@ -16539,11 +16646,11 @@
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="T20" s="2"/>
@@ -16641,11 +16748,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
@@ -17165,9 +17272,9 @@
       <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A64" s="23"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
@@ -17204,7 +17311,7 @@
   </sheetPr>
   <dimension ref="A1:W72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G69" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="W79" sqref="W79"/>
     </sheetView>
   </sheetViews>
@@ -17373,11 +17480,11 @@
       <c r="V11" s="8"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
@@ -17495,11 +17602,11 @@
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="T20" s="2"/>
@@ -17597,11 +17704,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
@@ -17982,11 +18089,11 @@
       <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
